--- a/Documentation/bydtatype.xlsx
+++ b/Documentation/bydtatype.xlsx
@@ -921,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J89" activeCellId="0" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -931,12 +931,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="63.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>

--- a/Documentation/bydtatype.xlsx
+++ b/Documentation/bydtatype.xlsx
@@ -510,14 +510,14 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14:D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.99"/>

--- a/Documentation/bydtatype.xlsx
+++ b/Documentation/bydtatype.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="bydtatype" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">bydtatype!$E$1:$E$93</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="120">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -34,6 +37,9 @@
     <t xml:space="preserve">HEX OPCODE</t>
   </si>
   <si>
+    <t xml:space="preserve">QT Label</t>
+  </si>
+  <si>
     <t xml:space="preserve">P2_t</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t xml:space="preserve">LMS7002M_create</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
     <t xml:space="preserve">None</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t xml:space="preserve">LMS7002M_regs</t>
   </si>
   <si>
+    <t xml:space="preserve">Regs</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_regs_t</t>
   </si>
   <si>
@@ -85,15 +97,24 @@
     <t xml:space="preserve">LMS7002M_reset</t>
   </si>
   <si>
+    <t xml:space="preserve">Power</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_power_down</t>
   </si>
   <si>
     <t xml:space="preserve">LMS7002M_setup_digital_loopback</t>
   </si>
   <si>
+    <t xml:space="preserve">loopback</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_spi_write</t>
   </si>
   <si>
+    <t xml:space="preserve">SPI</t>
+  </si>
+  <si>
     <t xml:space="preserve"> const int </t>
   </si>
   <si>
@@ -115,6 +136,9 @@
     <t xml:space="preserve">LMS7002M_dump_ini</t>
   </si>
   <si>
+    <t xml:space="preserve">INI</t>
+  </si>
+  <si>
     <t xml:space="preserve"> const char *</t>
   </si>
   <si>
@@ -133,12 +157,18 @@
     <t xml:space="preserve">LMS7002M_invert_fclk</t>
   </si>
   <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
     <t xml:space="preserve"> const bool </t>
   </si>
   <si>
     <t xml:space="preserve">LMS7002M_xbuf_share_tx</t>
   </si>
   <si>
+    <t xml:space="preserve">BUFF</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_xbuf_enable_bias</t>
   </si>
   <si>
@@ -151,6 +181,9 @@
     <t xml:space="preserve">LMS7002M_set_mac_dir</t>
   </si>
   <si>
+    <t xml:space="preserve">MAC</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_set_mac_ch</t>
   </si>
   <si>
@@ -160,21 +193,39 @@
     <t xml:space="preserve">LMS7002M_txtsp_tsg_tone</t>
   </si>
   <si>
+    <t xml:space="preserve">Enable Channel</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_rxtsp_tsg_tone</t>
   </si>
   <si>
+    <t xml:space="preserve">rx_cal_init</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_cal_init</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_set_diq_mux</t>
   </si>
   <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_ldo_enable</t>
   </si>
   <si>
+    <t xml:space="preserve">Enable</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_afe_enable</t>
   </si>
   <si>
     <t xml:space="preserve">LMS7002M_set_data_clock</t>
   </si>
   <si>
+    <t xml:space="preserve">Sampling</t>
+  </si>
+  <si>
     <t xml:space="preserve"> const double </t>
   </si>
   <si>
@@ -184,9 +235,15 @@
     <t xml:space="preserve">LMS7002M_set_nco_freq</t>
   </si>
   <si>
+    <t xml:space="preserve">Frequency Tunning</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_set_gfir_taps</t>
   </si>
   <si>
+    <t xml:space="preserve">FIR</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_set_lo_freq</t>
   </si>
   <si>
@@ -214,6 +271,9 @@
     <t xml:space="preserve">LMS7002M_rbb_set_test_out</t>
   </si>
   <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_rfe_enable</t>
   </si>
   <si>
@@ -235,6 +295,9 @@
     <t xml:space="preserve">LMS7002M_txtsp_set_dc_correction</t>
   </si>
   <si>
+    <t xml:space="preserve">Calibrate</t>
+  </si>
+  <si>
     <t xml:space="preserve">const LMS7002M_chan_t</t>
   </si>
   <si>
@@ -259,6 +322,9 @@
     <t xml:space="preserve">LMS7002M_tbb_set_path</t>
   </si>
   <si>
+    <t xml:space="preserve">Band</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMS7002M_tbb_set_test_in</t>
   </si>
   <si>
@@ -289,6 +355,9 @@
     <t xml:space="preserve">LMS7002M_trf_set_pad</t>
   </si>
   <si>
+    <t xml:space="preserve">Gain</t>
+  </si>
+  <si>
     <t xml:space="preserve">double</t>
   </si>
   <si>
@@ -308,6 +377,9 @@
   </si>
   <si>
     <t xml:space="preserve">LMS7002M_rxtsp_read_rssi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSSI</t>
   </si>
   <si>
     <t xml:space="preserve">uint16_t</t>
@@ -350,7 +422,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +433,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3465A4"/>
         <bgColor rgb="FF3366FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EFD4"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -398,7 +476,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -429,6 +507,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -476,7 +558,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE0EFD4"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -503,15 +585,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ92"/>
+  <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -520,16 +606,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="34.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,10 +629,10 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -557,19 +644,22 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -579,51 +669,53 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="0"/>
-      <c r="AME3" s="0"/>
+      <c r="M3" s="0"/>
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
@@ -635,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -645,22 +737,25 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>1</v>
@@ -678,22 +773,25 @@
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>1</v>
@@ -711,22 +809,25 @@
         <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>1</v>
@@ -744,22 +845,25 @@
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>1</v>
@@ -777,22 +881,25 @@
         <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>1</v>
@@ -810,22 +917,25 @@
         <v>A1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1</v>
@@ -843,51 +953,53 @@
         <v>C1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="6"/>
       <c r="L11" s="0"/>
-      <c r="AME11" s="0"/>
+      <c r="M11" s="0"/>
       <c r="AMF11" s="0"/>
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
@@ -899,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>2</v>
@@ -909,51 +1021,53 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="6"/>
       <c r="L13" s="0"/>
-      <c r="AME13" s="0"/>
+      <c r="M13" s="0"/>
       <c r="AMF13" s="0"/>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
@@ -965,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>3</v>
@@ -975,22 +1089,25 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>3</v>
@@ -1008,22 +1125,25 @@
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>3</v>
@@ -1041,22 +1161,25 @@
         <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>3</v>
@@ -1074,51 +1197,53 @@
         <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="6"/>
       <c r="L18" s="0"/>
-      <c r="AME18" s="0"/>
+      <c r="M18" s="0"/>
       <c r="AMF18" s="0"/>
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
@@ -1130,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>4</v>
@@ -1140,22 +1265,25 @@
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>4</v>
@@ -1173,51 +1301,53 @@
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="6"/>
       <c r="L21" s="0"/>
-      <c r="AME21" s="0"/>
+      <c r="M21" s="0"/>
       <c r="AMF21" s="0"/>
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
@@ -1229,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>5</v>
@@ -1239,51 +1369,53 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="6"/>
       <c r="L23" s="0"/>
-      <c r="AME23" s="0"/>
+      <c r="M23" s="0"/>
       <c r="AMF23" s="0"/>
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
@@ -1295,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>6</v>
@@ -1305,22 +1437,25 @@
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>6</v>
@@ -1338,22 +1473,25 @@
         <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>6</v>
@@ -1371,22 +1509,25 @@
         <v>46</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>6</v>
@@ -1404,51 +1545,53 @@
         <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="6"/>
       <c r="L28" s="0"/>
-      <c r="AME28" s="0"/>
+      <c r="M28" s="0"/>
       <c r="AMF28" s="0"/>
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
@@ -1460,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>7</v>
@@ -1470,22 +1613,25 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>7</v>
@@ -1503,22 +1649,25 @@
         <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>7</v>
@@ -1536,22 +1685,25 @@
         <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>7</v>
@@ -1569,22 +1721,25 @@
         <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>7</v>
@@ -1602,117 +1757,89 @@
         <v>87</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="0"/>
-      <c r="L34" s="0"/>
-      <c r="AME34" s="0"/>
-      <c r="AMF34" s="0"/>
-      <c r="AMG34" s="0"/>
-      <c r="AMH34" s="0"/>
-      <c r="AMI34" s="0"/>
-      <c r="AMJ34" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A34,5),C34))</f>
+        <v>A7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A35,5),C35))</f>
-        <v>8</v>
+        <v>C7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="E36" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="6"/>
       <c r="L36" s="0"/>
-      <c r="AME36" s="0"/>
+      <c r="M36" s="0"/>
       <c r="AMF36" s="0"/>
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
@@ -1724,61 +1851,63 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A37,5),C37))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="E38" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="6"/>
       <c r="L38" s="0"/>
-      <c r="AME38" s="0"/>
+      <c r="M38" s="0"/>
       <c r="AMF38" s="0"/>
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
@@ -1790,61 +1919,63 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A39,5),C39))</f>
-        <v>A</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="6"/>
       <c r="L40" s="0"/>
-      <c r="AME40" s="0"/>
+      <c r="M40" s="0"/>
       <c r="AMF40" s="0"/>
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
@@ -1856,61 +1987,63 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A41,5),C41))</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="E42" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F42" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="6"/>
       <c r="L42" s="0"/>
-      <c r="AME42" s="0"/>
+      <c r="M42" s="0"/>
       <c r="AMF42" s="0"/>
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
@@ -1922,61 +2055,63 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A43,5),C43))</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="E44" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F44" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="6"/>
       <c r="L44" s="0"/>
-      <c r="AME44" s="0"/>
+      <c r="M44" s="0"/>
       <c r="AMF44" s="0"/>
       <c r="AMG44" s="0"/>
       <c r="AMH44" s="0"/>
@@ -1988,61 +2123,63 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A45,5),C45))</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="E46" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F46" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="6"/>
       <c r="L46" s="0"/>
-      <c r="AME46" s="0"/>
+      <c r="M46" s="0"/>
       <c r="AMF46" s="0"/>
       <c r="AMG46" s="0"/>
       <c r="AMH46" s="0"/>
@@ -2054,61 +2191,63 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A47,5),C47))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="E48" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F48" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="6"/>
       <c r="L48" s="0"/>
-      <c r="AME48" s="0"/>
+      <c r="M48" s="0"/>
       <c r="AMF48" s="0"/>
       <c r="AMG48" s="0"/>
       <c r="AMH48" s="0"/>
@@ -2120,985 +2259,1047 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A49,5),C49))</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D50" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A50,5),C50))</f>
-        <v>2F</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="0"/>
+      <c r="AMF50" s="0"/>
+      <c r="AMG50" s="0"/>
+      <c r="AMH50" s="0"/>
+      <c r="AMI50" s="0"/>
+      <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A51,5),C51))</f>
-        <v>4F</v>
+        <v>F</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A52,5),C52))</f>
-        <v>6F</v>
+        <v>2F</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A53,5),C53))</f>
-        <v>8F</v>
+        <v>4F</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A54,5),C54))</f>
-        <v>AF</v>
+        <v>6F</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A55,5),C55))</f>
-        <v>CF</v>
+        <v>8F</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D56" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A56,5),C56))</f>
-        <v>EF</v>
+        <v>AF</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D57" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A57,5),C57))</f>
-        <v>10F</v>
+        <v>CF</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="6"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="AME58" s="0"/>
-      <c r="AMF58" s="0"/>
-      <c r="AMG58" s="0"/>
-      <c r="AMH58" s="0"/>
-      <c r="AMI58" s="0"/>
-      <c r="AMJ58" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A58,5),C58))</f>
+        <v>EF</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A59,5),C59))</f>
+        <v>10F</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="6"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="0"/>
+      <c r="AMF60" s="0"/>
+      <c r="AMG60" s="0"/>
+      <c r="AMH60" s="0"/>
+      <c r="AMI60" s="0"/>
+      <c r="AMJ60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A61,5),C61))</f>
         <v>10</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A60,5),C60))</f>
-        <v>30</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="E61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="0"/>
-      <c r="L61" s="0"/>
-      <c r="AME61" s="0"/>
-      <c r="AMF61" s="0"/>
-      <c r="AMG61" s="0"/>
-      <c r="AMH61" s="0"/>
-      <c r="AMI61" s="0"/>
-      <c r="AMJ61" s="0"/>
+      <c r="F61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A62,5),C62))</f>
+        <v>30</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="F63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="6"/>
+      <c r="L63" s="0"/>
+      <c r="M63" s="0"/>
+      <c r="AMF63" s="0"/>
+      <c r="AMG63" s="0"/>
+      <c r="AMH63" s="0"/>
+      <c r="AMI63" s="0"/>
+      <c r="AMJ63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A64,5),C64))</f>
         <v>11</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="1" t="s">
+      <c r="E64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="1" t="n">
         <v>17</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="D63" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A63,5),C63))</f>
-        <v>31</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="E64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="0"/>
-      <c r="L64" s="0"/>
-      <c r="AME64" s="0"/>
-      <c r="AMF64" s="0"/>
-      <c r="AMG64" s="0"/>
-      <c r="AMH64" s="0"/>
-      <c r="AMI64" s="0"/>
-      <c r="AMJ64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="1" t="n">
-        <v>18</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A65,5),C65))</f>
+        <v>31</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="6"/>
+      <c r="L66" s="0"/>
+      <c r="M66" s="0"/>
+      <c r="AMF66" s="0"/>
+      <c r="AMG66" s="0"/>
+      <c r="AMH66" s="0"/>
+      <c r="AMI66" s="0"/>
+      <c r="AMJ66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A67,5),C67))</f>
         <v>12</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="E67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="1" t="n">
+      <c r="B68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="1" t="n">
         <v>18</v>
-      </c>
-      <c r="D66" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A66,5),C66))</f>
-        <v>32</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="E67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J67" s="6"/>
-      <c r="K67" s="0"/>
-      <c r="L67" s="0"/>
-      <c r="AME67" s="0"/>
-      <c r="AMF67" s="0"/>
-      <c r="AMG67" s="0"/>
-      <c r="AMH67" s="0"/>
-      <c r="AMI67" s="0"/>
-      <c r="AMJ67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>19</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A68,5),C68))</f>
-        <v>13</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="6"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="0"/>
+      <c r="AMF69" s="0"/>
+      <c r="AMG69" s="0"/>
+      <c r="AMH69" s="0"/>
+      <c r="AMI69" s="0"/>
+      <c r="AMJ69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A70,5),C70))</f>
+        <v>13</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="1" t="n">
+      <c r="B71" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="1" t="n">
         <v>19</v>
-      </c>
-      <c r="D69" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A69,5),C69))</f>
-        <v>33</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="E70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J70" s="6"/>
-      <c r="K70" s="0"/>
-      <c r="L70" s="0"/>
-      <c r="AME70" s="0"/>
-      <c r="AMF70" s="0"/>
-      <c r="AMG70" s="0"/>
-      <c r="AMH70" s="0"/>
-      <c r="AMI70" s="0"/>
-      <c r="AMJ70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>20</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A71,5),C71))</f>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D72" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A72,5),C72))</f>
-        <v>34</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="6"/>
+      <c r="L72" s="0"/>
+      <c r="M72" s="0"/>
+      <c r="AMF72" s="0"/>
+      <c r="AMG72" s="0"/>
+      <c r="AMH72" s="0"/>
+      <c r="AMI72" s="0"/>
+      <c r="AMJ72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>20</v>
       </c>
       <c r="D73" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A73,5),C73))</f>
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>20</v>
       </c>
       <c r="D74" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A74,5),C74))</f>
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>20</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A75,5),C75))</f>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="E76" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="0"/>
-      <c r="L76" s="0"/>
-      <c r="AME76" s="0"/>
-      <c r="AMF76" s="0"/>
-      <c r="AMG76" s="0"/>
-      <c r="AMH76" s="0"/>
-      <c r="AMI76" s="0"/>
-      <c r="AMJ76" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A76,5),C76))</f>
+        <v>74</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A77,5),C77))</f>
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="78" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C78" s="6"/>
-      <c r="E78" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F78" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J78" s="6"/>
-      <c r="K78" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="6"/>
       <c r="L78" s="0"/>
-      <c r="AME78" s="0"/>
+      <c r="M78" s="0"/>
       <c r="AMF78" s="0"/>
       <c r="AMG78" s="0"/>
       <c r="AMH78" s="0"/>
@@ -3110,464 +3311,563 @@
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A79,5),C79))</f>
+        <v>15</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="F80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="6"/>
+      <c r="L80" s="0"/>
+      <c r="M80" s="0"/>
+      <c r="AMF80" s="0"/>
+      <c r="AMG80" s="0"/>
+      <c r="AMH80" s="0"/>
+      <c r="AMI80" s="0"/>
+      <c r="AMJ80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A81,5),C81))</f>
         <v>16</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="D80" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A80,5),C80))</f>
-        <v>36</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="E81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J81" s="6"/>
-      <c r="K81" s="0"/>
-      <c r="L81" s="0"/>
-      <c r="AME81" s="0"/>
-      <c r="AMF81" s="0"/>
-      <c r="AMG81" s="0"/>
-      <c r="AMH81" s="0"/>
-      <c r="AMI81" s="0"/>
-      <c r="AMJ81" s="0"/>
+      <c r="E81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A82,5),C82))</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="D83" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A83,5),C83))</f>
-        <v>37</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="F83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" s="6"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="0"/>
+      <c r="AMF83" s="0"/>
+      <c r="AMG83" s="0"/>
+      <c r="AMH83" s="0"/>
+      <c r="AMI83" s="0"/>
+      <c r="AMJ83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D84" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A84,5),C84))</f>
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D85" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A85,5),C85))</f>
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>91</v>
+        <v>2</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D86" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A86,5),C86))</f>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>92</v>
+        <v>3</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D87" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A87,5),C87))</f>
-        <v>B7</v>
+        <v>77</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D88" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A88,5),C88))</f>
-        <v>D7</v>
+        <v>97</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D89" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A89,5),C89))</f>
-        <v>F7</v>
+        <v>B7</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="E90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J90" s="6"/>
-      <c r="K90" s="0"/>
-      <c r="L90" s="0"/>
-      <c r="AME90" s="0"/>
-      <c r="AMF90" s="0"/>
-      <c r="AMG90" s="0"/>
-      <c r="AMH90" s="0"/>
-      <c r="AMI90" s="0"/>
-      <c r="AMJ90" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A90,5),C90))</f>
+        <v>D7</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>95</v>
+        <v>7</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" s="1" t="str">
         <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A91,5),C91))</f>
-        <v>18</v>
+        <v>F7</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="92" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C92" s="6"/>
-      <c r="E92" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F92" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="6"/>
-      <c r="K92" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="6"/>
       <c r="L92" s="0"/>
-      <c r="AME92" s="0"/>
+      <c r="M92" s="0"/>
       <c r="AMF92" s="0"/>
       <c r="AMG92" s="0"/>
       <c r="AMH92" s="0"/>
       <c r="AMI92" s="0"/>
       <c r="AMJ92" s="0"/>
     </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A93,5),C93))</f>
+        <v>18</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="F94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" s="6"/>
+      <c r="L94" s="0"/>
+      <c r="M94" s="0"/>
+      <c r="AMF94" s="0"/>
+      <c r="AMG94" s="0"/>
+      <c r="AMH94" s="0"/>
+      <c r="AMI94" s="0"/>
+      <c r="AMJ94" s="0"/>
+    </row>
   </sheetData>
+  <autoFilter ref="E1:E93"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3575,5 +3875,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/bydtatype.xlsx
+++ b/Documentation/bydtatype.xlsx
@@ -11,7 +11,7 @@
     <sheet name="bydtatype" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">bydtatype!$E$1:$E$93</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">bydtatype!$A$1:$K$94</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="120">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">QT Label</t>
   </si>
   <si>
+    <t xml:space="preserve">P1_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">P2_t</t>
   </si>
   <si>
@@ -52,9 +55,6 @@
     <t xml:space="preserve">P5_t</t>
   </si>
   <si>
-    <t xml:space="preserve">P6_t</t>
-  </si>
-  <si>
     <t xml:space="preserve">Return_t</t>
   </si>
   <si>
@@ -187,39 +187,42 @@
     <t xml:space="preserve">LMS7002M_set_mac_ch</t>
   </si>
   <si>
+    <t xml:space="preserve">const LMS7002M_chan_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMS7002M_txtsp_tsg_tone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMS7002M_rxtsp_tsg_tone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rx_cal_init</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_cal_init</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMS7002M_set_diq_mux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMS7002M_ldo_enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMS7002M_afe_enable</t>
+  </si>
+  <si>
     <t xml:space="preserve"> const LMS7002M_chan_t </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_txtsp_tsg_tone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_rxtsp_tsg_tone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rx_cal_init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx_cal_init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_set_diq_mux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_ldo_enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_afe_enable</t>
-  </si>
-  <si>
     <t xml:space="preserve">LMS7002M_set_data_clock</t>
   </si>
   <si>
@@ -296,9 +299,6 @@
   </si>
   <si>
     <t xml:space="preserve">Calibrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const LMS7002M_chan_t</t>
   </si>
   <si>
     <t xml:space="preserve">const double</t>
@@ -392,12 +392,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -416,18 +415,136 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFE0EFD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFE0EFD4"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -438,11 +555,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0EFD4"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -450,8 +567,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,13 +607,68 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,49 +680,66 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -543,11 +747,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFE0EFD4"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -558,12 +762,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE0EFD4"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -597,7 +801,7 @@
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,7 +809,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="34.13"/>
@@ -616,43 +820,43 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -714,8 +918,6 @@
         <v>15</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
@@ -1670,7 +1872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>2</v>
       </c>
@@ -1687,7 +1889,7 @@
       <c r="E31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="8" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -1706,7 +1908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>3</v>
       </c>
@@ -1723,7 +1925,7 @@
       <c r="E32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -1742,7 +1944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>4</v>
       </c>
@@ -1759,7 +1961,7 @@
       <c r="E33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -1778,7 +1980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>5</v>
       </c>
@@ -1795,8 +1997,23 @@
       <c r="E34" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>6</v>
       </c>
@@ -1812,6 +2029,21 @@
       </c>
       <c r="E35" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,7 +2235,7 @@
         <v>42</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>45</v>
@@ -2055,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>11</v>
@@ -2065,16 +2297,16 @@
         <v>B</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>13</v>
@@ -2123,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>12</v>
@@ -2133,16 +2365,16 @@
         <v>C</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>13</v>
@@ -2191,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>13</v>
@@ -2201,7 +2433,7 @@
         <v>D</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
@@ -2259,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>14</v>
@@ -2269,19 +2501,19 @@
         <v>E</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>13</v>
@@ -2327,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>15</v>
@@ -2358,12 +2590,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>15</v>
@@ -2375,7 +2607,7 @@
       <c r="E52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -2394,12 +2626,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>15</v>
@@ -2411,7 +2643,7 @@
       <c r="E53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -2430,12 +2662,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>15</v>
@@ -2447,7 +2679,7 @@
       <c r="E54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2466,12 +2698,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>15</v>
@@ -2483,7 +2715,7 @@
       <c r="E55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -2502,12 +2734,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>15</v>
@@ -2519,7 +2751,7 @@
       <c r="E56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -2538,12 +2770,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>15</v>
@@ -2555,7 +2787,7 @@
       <c r="E57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -2574,12 +2806,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>15</v>
@@ -2589,9 +2821,9 @@
         <v>EF</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -2610,12 +2842,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>15</v>
@@ -2627,7 +2859,7 @@
       <c r="E59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -2678,12 +2910,12 @@
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>16</v>
@@ -2693,13 +2925,13 @@
         <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>13</v>
@@ -2714,12 +2946,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>16</v>
@@ -2729,13 +2961,13 @@
         <v>30</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>13</v>
@@ -2782,12 +3014,12 @@
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>17</v>
@@ -2799,7 +3031,7 @@
       <c r="E64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -2818,12 +3050,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>17</v>
@@ -2835,7 +3067,7 @@
       <c r="E65" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -2891,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>18</v>
@@ -2901,15 +3133,15 @@
         <v>12</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="F67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="4" t="s">
         <v>92</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -2937,15 +3169,15 @@
         <v>32</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F68" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="F68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="4" t="s">
         <v>92</v>
       </c>
       <c r="I68" s="1" t="s">
@@ -3005,15 +3237,15 @@
         <v>13</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F70" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="F70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -3041,15 +3273,15 @@
         <v>33</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="F71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I71" s="1" t="s">
@@ -3094,7 +3326,7 @@
       <c r="AMI72" s="0"/>
       <c r="AMJ72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>0</v>
       </c>
@@ -3111,7 +3343,7 @@
       <c r="E73" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -3130,7 +3362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>1</v>
       </c>
@@ -3145,9 +3377,9 @@
         <v>34</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -3166,7 +3398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>2</v>
       </c>
@@ -3183,7 +3415,7 @@
       <c r="E75" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -3202,7 +3434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>3</v>
       </c>
@@ -3219,7 +3451,7 @@
       <c r="E76" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -3238,7 +3470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>4</v>
       </c>
@@ -3255,7 +3487,7 @@
       <c r="E77" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -3306,7 +3538,7 @@
       <c r="AMI78" s="0"/>
       <c r="AMJ78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>0</v>
       </c>
@@ -3323,7 +3555,7 @@
       <c r="E79" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -3374,7 +3606,7 @@
       <c r="AMI80" s="0"/>
       <c r="AMJ80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>0</v>
       </c>
@@ -3389,16 +3621,16 @@
         <v>16</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>13</v>
@@ -3410,7 +3642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>1</v>
       </c>
@@ -3425,16 +3657,16 @@
         <v>36</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>13</v>
@@ -3478,7 +3710,7 @@
       <c r="AMI83" s="0"/>
       <c r="AMJ83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>0</v>
       </c>
@@ -3493,13 +3725,13 @@
         <v>17</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>13</v>
@@ -3514,7 +3746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>1</v>
       </c>
@@ -3529,13 +3761,13 @@
         <v>37</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>13</v>
@@ -3550,11 +3782,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C86" s="1" t="n">
@@ -3567,11 +3799,11 @@
       <c r="E86" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>13</v>
@@ -3586,11 +3818,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C87" s="1" t="n">
@@ -3603,11 +3835,11 @@
       <c r="E87" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>13</v>
@@ -3622,11 +3854,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C88" s="1" t="n">
@@ -3639,11 +3871,11 @@
       <c r="E88" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>13</v>
@@ -3658,11 +3890,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C89" s="1" t="n">
@@ -3675,11 +3907,11 @@
       <c r="E89" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>13</v>
@@ -3694,11 +3926,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C90" s="1" t="n">
@@ -3711,11 +3943,11 @@
       <c r="E90" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>13</v>
@@ -3730,11 +3962,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C91" s="1" t="n">
@@ -3747,11 +3979,11 @@
       <c r="E91" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>13</v>
@@ -3798,7 +4030,7 @@
       <c r="AMI92" s="0"/>
       <c r="AMJ92" s="0"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>0</v>
       </c>
@@ -3815,7 +4047,7 @@
       <c r="E93" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -3867,7 +4099,7 @@
       <c r="AMJ94" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E93"/>
+  <autoFilter ref="A1:K94"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Documentation/bydtatype.xlsx
+++ b/Documentation/bydtatype.xlsx
@@ -392,11 +392,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -415,136 +416,18 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFE0EFD4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFE0EFD4"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -555,11 +438,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0EFD4"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -567,23 +450,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -607,57 +475,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -680,15 +497,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -696,50 +513,33 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -747,11 +547,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFE0EFD4"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -762,12 +562,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE0EFD4"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -800,8 +600,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
